--- a/bom_partlist/sigma_mix_partlist.xlsx
+++ b/bom_partlist/sigma_mix_partlist.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="17927"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18067"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shun\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shun\Desktop\CurrentProjects\SigmaMIX\bom_partlist\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="243" uniqueCount="184">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="238" uniqueCount="181">
   <si>
     <t>Part</t>
   </si>
@@ -42,9 +42,6 @@
     <t>100pF</t>
   </si>
   <si>
-    <t>22pF</t>
-  </si>
-  <si>
     <t>56nF</t>
   </si>
   <si>
@@ -128,10 +125,6 @@
   </si>
   <si>
     <t>multilayer ceramic capacitor</t>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
-    <t>ceramic capacitor</t>
     <phoneticPr fontId="18"/>
   </si>
   <si>
@@ -370,10 +363,6 @@
     <phoneticPr fontId="18"/>
   </si>
   <si>
-    <t>P100HCT-ND</t>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
     <t>P1.00KHCT-ND</t>
     <phoneticPr fontId="18"/>
   </si>
@@ -422,10 +411,6 @@
     <phoneticPr fontId="18"/>
   </si>
   <si>
-    <t>490-3608-1-ND</t>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
     <t>490-1615-1-ND</t>
     <phoneticPr fontId="18"/>
   </si>
@@ -446,18 +431,10 @@
     <phoneticPr fontId="18"/>
   </si>
   <si>
-    <t>R28, R29</t>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
     <t>R30, R31</t>
     <phoneticPr fontId="18"/>
   </si>
   <si>
-    <t>C7, C8, C13, C20, C21, C22, C23, C26, C27, C28, C29, C34, C35, C38, C39, C44, C45, C48, C49, C52, C53</t>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
     <t>C9, C10, C11, C12</t>
     <phoneticPr fontId="18"/>
   </si>
@@ -486,10 +463,6 @@
     <phoneticPr fontId="18"/>
   </si>
   <si>
-    <t>C30, C31, C32, C33</t>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
     <t>JP3, JP4</t>
     <phoneticPr fontId="18"/>
   </si>
@@ -554,10 +527,6 @@
     <phoneticPr fontId="18"/>
   </si>
   <si>
-    <t>21</t>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
     <t>1</t>
     <phoneticPr fontId="18"/>
   </si>
@@ -622,115 +591,135 @@
     <phoneticPr fontId="18"/>
   </si>
   <si>
+    <t>Ferrite Bead</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>Transistor</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>Switch</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>Connector</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>Header</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>Analog Devices</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>Analog Devices</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>Silicon Labs</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>Microchip</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>Epson</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>Murata</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>Diodes Incorporated</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>Omron</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>E-Switch</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>Omron</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>CUI</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>CUI</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>Panasonic</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>Panasonic</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>Panasonic</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>Murata</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>Murata</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>Murata</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>Vishay Dale</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>AVX Corporation</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>Vishay Spraque</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>N</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>0</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>R3</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>P0.0ACT-ND</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
     <t>Capacitor</t>
     <phoneticPr fontId="18"/>
   </si>
   <si>
-    <t>Ferrite Bead</t>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
-    <t>Transistor</t>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
-    <t>Switch</t>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
-    <t>Connector</t>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
-    <t>Header</t>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
-    <t>Analog Devices</t>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
-    <t>Analog Devices</t>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
-    <t>Silicon Labs</t>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
-    <t>Microchip</t>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
-    <t>Epson</t>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
-    <t>Murata</t>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
-    <t>Diodes Incorporated</t>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
-    <t>Omron</t>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
-    <t>E-Switch</t>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
-    <t>Omron</t>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
-    <t>CUI</t>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
-    <t>CUI</t>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
-    <t>Panasonic</t>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
-    <t>Panasonic</t>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
-    <t>Panasonic</t>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
-    <t>Murata</t>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
-    <t>Murata</t>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
-    <t>Murata</t>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
-    <t>Vishay Dale</t>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
-    <t>AVX Corporation</t>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
-    <t>Vishay Spraque</t>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
-    <t>N</t>
+    <t>C1, C2, C7, C8, C13, C20, C21, C22, C23, C26, C27, C28, C29, C34, C35, C38, C39, C44, C45, C48, C49, C52, C53</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>23</t>
     <phoneticPr fontId="18"/>
   </si>
 </sst>
@@ -1765,11 +1754,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K35"/>
+  <dimension ref="A1:K34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J9" sqref="J9"/>
+      <selection pane="bottomLeft" activeCell="J31" sqref="J31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -1786,28 +1775,28 @@
   <sheetData>
     <row r="1" spans="1:11" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A1" s="4" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="B1" s="7" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="7" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="D1" s="4" t="s">
         <v>2</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>183</v>
+        <v>174</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G1" s="7" t="s">
         <v>0</v>
       </c>
       <c r="H1" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="I1" s="1"/>
       <c r="J1" s="1"/>
@@ -1815,28 +1804,28 @@
     </row>
     <row r="2" spans="1:11" ht="19.5" thickTop="1" x14ac:dyDescent="0.4">
       <c r="A2" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="C2" s="5" t="s">
         <v>153</v>
       </c>
-      <c r="B2" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="C2" s="5" t="s">
-        <v>162</v>
-      </c>
       <c r="D2" s="2" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>137</v>
+        <v>130</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="G2" s="5" t="s">
-        <v>131</v>
+        <v>124</v>
       </c>
       <c r="H2" s="5" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="I2" s="1"/>
       <c r="J2" s="1"/>
@@ -1845,25 +1834,25 @@
     <row r="3" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A3" s="2"/>
       <c r="B3" s="5" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>163</v>
+        <v>154</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>147</v>
+        <v>139</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="G3" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="H3" s="5" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="I3" s="1"/>
       <c r="J3" s="1"/>
@@ -1872,25 +1861,25 @@
     <row r="4" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A4" s="2"/>
       <c r="B4" s="5" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>164</v>
+        <v>155</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>140</v>
+        <v>132</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="G4" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="H4" s="5" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="I4" s="1"/>
       <c r="J4" s="1"/>
@@ -1899,25 +1888,25 @@
     <row r="5" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A5" s="2"/>
       <c r="B5" s="5" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>165</v>
+        <v>156</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>140</v>
+        <v>132</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="G5" s="5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="H5" s="5" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="I5" s="1"/>
       <c r="J5" s="1"/>
@@ -1925,28 +1914,28 @@
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A6" s="2" t="s">
-        <v>154</v>
+        <v>146</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>166</v>
+        <v>157</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>145</v>
+        <v>137</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="G6" s="5" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
       <c r="H6" s="5" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="I6" s="1"/>
       <c r="J6" s="1"/>
@@ -1954,28 +1943,28 @@
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A7" s="2" t="s">
-        <v>155</v>
+        <v>147</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>180</v>
+        <v>171</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>141</v>
+        <v>133</v>
       </c>
       <c r="F7" s="5" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="G7" s="5" t="s">
-        <v>130</v>
+        <v>123</v>
       </c>
       <c r="H7" s="5" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="I7" s="1"/>
       <c r="J7" s="1"/>
@@ -1984,25 +1973,25 @@
     <row r="8" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A8" s="2"/>
       <c r="B8" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>174</v>
+        <v>165</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>151</v>
+        <v>143</v>
       </c>
       <c r="F8" s="5" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="G8" s="5" t="s">
-        <v>128</v>
+        <v>121</v>
       </c>
       <c r="H8" s="5" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="I8" s="1"/>
       <c r="J8" s="1"/>
@@ -2010,26 +1999,26 @@
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A9" s="2"/>
-      <c r="B9" s="5">
-        <v>100</v>
+      <c r="B9" s="5" t="s">
+        <v>175</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>174</v>
+        <v>165</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="F9" s="5" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="G9" s="5" t="s">
-        <v>112</v>
+        <v>176</v>
       </c>
       <c r="H9" s="5" t="s">
-        <v>93</v>
+        <v>177</v>
       </c>
       <c r="I9" s="1"/>
       <c r="J9" s="1"/>
@@ -2041,22 +2030,22 @@
         <v>475</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>175</v>
+        <v>166</v>
       </c>
       <c r="D10" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="F10" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="E10" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="F10" s="5" t="s">
-        <v>40</v>
-      </c>
       <c r="G10" s="5" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="H10" s="5" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="I10" s="1"/>
       <c r="J10" s="1"/>
@@ -2065,25 +2054,25 @@
     <row r="11" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A11" s="2"/>
       <c r="B11" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>176</v>
+        <v>167</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>138</v>
+        <v>131</v>
       </c>
       <c r="F11" s="5" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="G11" s="5" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="H11" s="5" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="I11" s="1"/>
       <c r="J11" s="1"/>
@@ -2092,25 +2081,25 @@
     <row r="12" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A12" s="2"/>
       <c r="B12" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>175</v>
+        <v>166</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>143</v>
+        <v>135</v>
       </c>
       <c r="F12" s="5" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="G12" s="5" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="H12" s="5" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="I12" s="1"/>
       <c r="J12" s="1"/>
@@ -2119,25 +2108,25 @@
     <row r="13" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A13" s="2"/>
       <c r="B13" s="5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>175</v>
+        <v>166</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>146</v>
+        <v>138</v>
       </c>
       <c r="F13" s="5" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="G13" s="5" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
       <c r="H13" s="5" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="I13" s="1"/>
       <c r="J13" s="1"/>
@@ -2146,25 +2135,25 @@
     <row r="14" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A14" s="2"/>
       <c r="B14" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>175</v>
+        <v>166</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>149</v>
+        <v>141</v>
       </c>
       <c r="F14" s="5" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="G14" s="5" t="s">
-        <v>126</v>
+        <v>119</v>
       </c>
       <c r="H14" s="5" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="I14" s="1"/>
       <c r="J14" s="1"/>
@@ -2173,25 +2162,25 @@
     <row r="15" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A15" s="2"/>
       <c r="B15" s="5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>176</v>
+        <v>167</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>140</v>
+        <v>132</v>
       </c>
       <c r="F15" s="5" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="G15" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H15" s="5" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="I15" s="1"/>
       <c r="J15" s="1"/>
@@ -2199,28 +2188,28 @@
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A16" s="2" t="s">
-        <v>156</v>
+        <v>178</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="D16" s="2">
         <v>2012</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>141</v>
+        <v>133</v>
       </c>
       <c r="F16" s="5" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="G16" s="5" t="s">
-        <v>122</v>
+        <v>109</v>
       </c>
       <c r="H16" s="5" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="I16" s="1"/>
       <c r="J16" s="1"/>
@@ -2229,25 +2218,25 @@
     <row r="17" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A17" s="2"/>
       <c r="B17" s="5" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>177</v>
+        <v>169</v>
       </c>
       <c r="D17" s="2">
         <v>2012</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>141</v>
+        <v>130</v>
       </c>
       <c r="F17" s="5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G17" s="5" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="H17" s="5" t="s">
-        <v>107</v>
+        <v>100</v>
       </c>
       <c r="I17" s="1"/>
       <c r="J17" s="1"/>
@@ -2256,25 +2245,25 @@
     <row r="18" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A18" s="2"/>
       <c r="B18" s="5" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C18" s="5" t="s">
-        <v>178</v>
+        <v>169</v>
       </c>
       <c r="D18" s="2">
         <v>2012</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>137</v>
+        <v>142</v>
       </c>
       <c r="F18" s="5" t="s">
         <v>32</v>
       </c>
       <c r="G18" s="5" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="H18" s="5" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="I18" s="1"/>
       <c r="J18" s="1"/>
@@ -2283,25 +2272,25 @@
     <row r="19" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A19" s="2"/>
       <c r="B19" s="5" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C19" s="5" t="s">
-        <v>178</v>
+        <v>170</v>
       </c>
       <c r="D19" s="2">
         <v>2012</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>150</v>
+        <v>180</v>
       </c>
       <c r="F19" s="5" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G19" s="5" t="s">
-        <v>127</v>
+        <v>179</v>
       </c>
       <c r="H19" s="5" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="I19" s="1"/>
       <c r="J19" s="1"/>
@@ -2310,22 +2299,22 @@
     <row r="20" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A20" s="2"/>
       <c r="B20" s="5" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C20" s="5" t="s">
-        <v>179</v>
+        <v>172</v>
       </c>
       <c r="D20" s="2">
         <v>2012</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="F20" s="5" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G20" s="5" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="H20" s="5" t="s">
         <v>104</v>
@@ -2337,52 +2326,54 @@
     <row r="21" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A21" s="2"/>
       <c r="B21" s="5" t="s">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="C21" s="5" t="s">
-        <v>181</v>
+        <v>173</v>
       </c>
       <c r="D21" s="2">
-        <v>2012</v>
+        <v>3528</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>144</v>
+        <v>134</v>
       </c>
       <c r="F21" s="5" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="G21" s="5" t="s">
-        <v>118</v>
+        <v>110</v>
       </c>
       <c r="H21" s="5" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="I21" s="1"/>
       <c r="J21" s="1"/>
       <c r="K21" s="1"/>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A22" s="2"/>
+      <c r="A22" s="2" t="s">
+        <v>148</v>
+      </c>
       <c r="B22" s="5" t="s">
-        <v>9</v>
+        <v>40</v>
       </c>
       <c r="C22" s="5" t="s">
-        <v>182</v>
-      </c>
-      <c r="D22" s="2">
-        <v>3528</v>
+        <v>158</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>36</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="F22" s="5" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="G22" s="5" t="s">
-        <v>116</v>
+        <v>122</v>
       </c>
       <c r="H22" s="5" t="s">
-        <v>105</v>
+        <v>81</v>
       </c>
       <c r="I22" s="1"/>
       <c r="J22" s="1"/>
@@ -2390,28 +2381,28 @@
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A23" s="2" t="s">
-        <v>157</v>
+        <v>149</v>
       </c>
       <c r="B23" s="5" t="s">
         <v>42</v>
       </c>
       <c r="C23" s="5" t="s">
-        <v>167</v>
+        <v>159</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>38</v>
+        <v>22</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>152</v>
+        <v>130</v>
       </c>
       <c r="F23" s="5" t="s">
         <v>43</v>
       </c>
       <c r="G23" s="5" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="H23" s="5" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="I23" s="1"/>
       <c r="J23" s="1"/>
@@ -2419,57 +2410,55 @@
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A24" s="2" t="s">
-        <v>158</v>
+        <v>150</v>
       </c>
       <c r="B24" s="5" t="s">
-        <v>44</v>
+        <v>68</v>
       </c>
       <c r="C24" s="5" t="s">
-        <v>168</v>
+        <v>160</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>23</v>
+        <v>62</v>
       </c>
       <c r="E24" s="2" t="s">
         <v>137</v>
       </c>
       <c r="F24" s="5" t="s">
-        <v>45</v>
+        <v>74</v>
       </c>
       <c r="G24" s="5" t="s">
-        <v>133</v>
+        <v>125</v>
       </c>
       <c r="H24" s="5" t="s">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="I24" s="1"/>
       <c r="J24" s="1"/>
       <c r="K24" s="1"/>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A25" s="2" t="s">
-        <v>159</v>
-      </c>
+      <c r="A25" s="2"/>
       <c r="B25" s="5" t="s">
         <v>70</v>
       </c>
       <c r="C25" s="5" t="s">
-        <v>169</v>
+        <v>161</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>145</v>
+        <v>132</v>
       </c>
       <c r="F25" s="5" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="G25" s="5" t="s">
-        <v>132</v>
+        <v>20</v>
       </c>
       <c r="H25" s="5" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="I25" s="1"/>
       <c r="J25" s="1"/>
@@ -2478,79 +2467,79 @@
     <row r="26" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A26" s="2"/>
       <c r="B26" s="5" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C26" s="5" t="s">
-        <v>170</v>
+        <v>162</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="F26" s="5" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="G26" s="5" t="s">
         <v>21</v>
       </c>
       <c r="H26" s="5" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="I26" s="1"/>
       <c r="J26" s="1"/>
       <c r="K26" s="1"/>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A27" s="2"/>
+      <c r="A27" s="2" t="s">
+        <v>151</v>
+      </c>
       <c r="B27" s="5" t="s">
-        <v>73</v>
-      </c>
-      <c r="C27" s="5" t="s">
-        <v>171</v>
-      </c>
+        <v>57</v>
+      </c>
+      <c r="C27" s="5"/>
       <c r="D27" s="2" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>147</v>
+        <v>139</v>
       </c>
       <c r="F27" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="G27" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="H27" s="8" t="s">
         <v>75</v>
-      </c>
-      <c r="G27" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="H27" s="5" t="s">
-        <v>90</v>
       </c>
       <c r="I27" s="1"/>
       <c r="J27" s="1"/>
       <c r="K27" s="1"/>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A28" s="2" t="s">
-        <v>160</v>
-      </c>
+      <c r="A28" s="2"/>
       <c r="B28" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="C28" s="5" t="s">
+        <v>163</v>
+      </c>
+      <c r="D28" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="E28" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="F28" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="C28" s="5"/>
-      <c r="D28" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="E28" s="2" t="s">
-        <v>147</v>
-      </c>
-      <c r="F28" s="5" t="s">
-        <v>61</v>
-      </c>
       <c r="G28" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="H28" s="8" t="s">
-        <v>77</v>
+        <v>127</v>
+      </c>
+      <c r="H28" s="5" t="s">
+        <v>82</v>
       </c>
       <c r="I28" s="1"/>
       <c r="J28" s="1"/>
@@ -2559,25 +2548,25 @@
     <row r="29" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A29" s="2"/>
       <c r="B29" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="C29" s="5" t="s">
+        <v>163</v>
+      </c>
+      <c r="D29" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="C29" s="5" t="s">
-        <v>172</v>
-      </c>
-      <c r="D29" s="2" t="s">
-        <v>60</v>
-      </c>
       <c r="E29" s="2" t="s">
-        <v>137</v>
+        <v>130</v>
       </c>
       <c r="F29" s="5" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="G29" s="5" t="s">
-        <v>134</v>
+        <v>128</v>
       </c>
       <c r="H29" s="5" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="I29" s="1"/>
       <c r="J29" s="1"/>
@@ -2586,81 +2575,81 @@
     <row r="30" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A30" s="2"/>
       <c r="B30" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="C30" s="5" t="s">
+        <v>164</v>
+      </c>
+      <c r="D30" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="C30" s="5" t="s">
-        <v>172</v>
-      </c>
-      <c r="D30" s="2" t="s">
+      <c r="E30" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="F30" s="5" t="s">
         <v>64</v>
       </c>
-      <c r="E30" s="2" t="s">
-        <v>137</v>
-      </c>
-      <c r="F30" s="5" t="s">
-        <v>61</v>
-      </c>
       <c r="G30" s="5" t="s">
-        <v>135</v>
+        <v>129</v>
       </c>
       <c r="H30" s="5" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="I30" s="1"/>
       <c r="J30" s="1"/>
       <c r="K30" s="1"/>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A31" s="2"/>
+      <c r="A31" s="2" t="s">
+        <v>152</v>
+      </c>
       <c r="B31" s="5" t="s">
-        <v>63</v>
+        <v>105</v>
       </c>
       <c r="C31" s="5" t="s">
-        <v>173</v>
+        <v>163</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="F31" s="5" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="G31" s="5" t="s">
-        <v>136</v>
+        <v>10</v>
       </c>
       <c r="H31" s="5" t="s">
-        <v>86</v>
+        <v>98</v>
       </c>
       <c r="I31" s="1"/>
       <c r="J31" s="1"/>
       <c r="K31" s="1"/>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A32" s="2" t="s">
-        <v>161</v>
-      </c>
+      <c r="A32" s="2"/>
       <c r="B32" s="5" t="s">
-        <v>109</v>
+        <v>69</v>
       </c>
       <c r="C32" s="5" t="s">
-        <v>172</v>
+        <v>163</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>147</v>
+        <v>132</v>
       </c>
       <c r="F32" s="5" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="G32" s="5" t="s">
         <v>11</v>
       </c>
       <c r="H32" s="5" t="s">
-        <v>101</v>
+        <v>85</v>
       </c>
       <c r="I32" s="1"/>
       <c r="J32" s="1"/>
@@ -2669,86 +2658,59 @@
     <row r="33" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A33" s="2"/>
       <c r="B33" s="5" t="s">
-        <v>71</v>
-      </c>
-      <c r="C33" s="5" t="s">
-        <v>172</v>
-      </c>
+        <v>65</v>
+      </c>
+      <c r="C33" s="5"/>
       <c r="D33" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="E33" s="2" t="s">
         <v>140</v>
       </c>
       <c r="F33" s="5" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="G33" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="H33" s="5" t="s">
-        <v>87</v>
+        <v>117</v>
+      </c>
+      <c r="H33" s="8" t="s">
+        <v>75</v>
       </c>
       <c r="I33" s="1"/>
       <c r="J33" s="1"/>
       <c r="K33" s="1"/>
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A34" s="2"/>
-      <c r="B34" s="5" t="s">
+      <c r="A34" s="3"/>
+      <c r="B34" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="C34" s="6"/>
+      <c r="D34" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="E34" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="F34" s="6" t="s">
         <v>67</v>
       </c>
-      <c r="C34" s="5"/>
-      <c r="D34" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="E34" s="2" t="s">
-        <v>148</v>
-      </c>
-      <c r="F34" s="5" t="s">
-        <v>69</v>
-      </c>
-      <c r="G34" s="5" t="s">
-        <v>124</v>
-      </c>
-      <c r="H34" s="8" t="s">
-        <v>77</v>
+      <c r="G34" s="6" t="s">
+        <v>116</v>
+      </c>
+      <c r="H34" s="9" t="s">
+        <v>75</v>
       </c>
       <c r="I34" s="1"/>
       <c r="J34" s="1"/>
       <c r="K34" s="1"/>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A35" s="3"/>
-      <c r="B35" s="6" t="s">
-        <v>68</v>
-      </c>
-      <c r="C35" s="6"/>
-      <c r="D35" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="E35" s="3" t="s">
-        <v>145</v>
-      </c>
-      <c r="F35" s="6" t="s">
-        <v>69</v>
-      </c>
-      <c r="G35" s="6" t="s">
-        <v>123</v>
-      </c>
-      <c r="H35" s="9" t="s">
-        <v>77</v>
-      </c>
-      <c r="I35" s="1"/>
-      <c r="J35" s="1"/>
-      <c r="K35" s="1"/>
-    </row>
   </sheetData>
-  <sortState ref="A2:H31">
-    <sortCondition ref="B9:B31"/>
+  <sortState ref="A2:H30">
+    <sortCondition ref="B9:B30"/>
   </sortState>
   <phoneticPr fontId="18"/>
-  <conditionalFormatting sqref="A1:H35">
+  <conditionalFormatting sqref="A1:H34">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>

--- a/bom_partlist/sigma_mix_partlist.xlsx
+++ b/bom_partlist/sigma_mix_partlist.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18201"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18229"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -14,12 +14,12 @@
   <sheets>
     <sheet name="partslist" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="236" uniqueCount="167">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="197" uniqueCount="157">
   <si>
     <t>Part</t>
   </si>
@@ -161,9 +161,6 @@
     <phoneticPr fontId="18"/>
   </si>
   <si>
-    <t>EG4328-ND</t>
-  </si>
-  <si>
     <t>ZXTP25040DFHCT-ND</t>
     <phoneticPr fontId="18"/>
   </si>
@@ -177,10 +174,6 @@
   </si>
   <si>
     <t>SMD</t>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
-    <t>535-10902-1-ND</t>
     <phoneticPr fontId="18"/>
   </si>
   <si>
@@ -274,370 +267,339 @@
     <phoneticPr fontId="18"/>
   </si>
   <si>
+    <t>Audio Connector</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>Audio Connector</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>2x5</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>2x6</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>Pin Header</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>BGM113</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>LGA Module</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>DC_JACK</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>Power Connector</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>Bluetooth Module</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>GREEN</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>RED</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>67-1002-1-ND</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>LED</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>67-1003-1-ND</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>600ohm@100MHz</t>
+  </si>
+  <si>
+    <t>490-14396-1-ND</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>Ferrite Beads</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>1608</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>1608</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>1608</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>2012</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>2012</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>2012</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>P49.9KHCT-ND</t>
+  </si>
+  <si>
+    <t>P56.2HCT-ND</t>
+  </si>
+  <si>
+    <t>P10.0KHCT-ND</t>
+  </si>
+  <si>
+    <t>P18.0KHCT-ND</t>
+  </si>
+  <si>
+    <t>P1.00KHCT-ND</t>
+  </si>
+  <si>
+    <t>P0.0ACT-ND</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>P100KHCT-ND</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>P8.06KHCT-ND</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>P475HCT-ND</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>P562HCT-ND</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>Resistor</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>Resistor</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>Resistor</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t xml:space="preserve">490-1683-6-ND </t>
+  </si>
+  <si>
+    <t>Multilayer Ceramic Capacitor</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>Multilayer Ceramic Capacitor</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t xml:space="preserve">490-1662-1-ND </t>
+  </si>
+  <si>
+    <t>490-1615-1-ND</t>
+  </si>
+  <si>
+    <t xml:space="preserve">399-1153-1-ND </t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>490-3905-1-ND</t>
+  </si>
+  <si>
+    <t>718-1313-1-ND</t>
+  </si>
+  <si>
+    <t>Tantalum Capacitor</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>Tantalum Capacitor</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>3528</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>478-8115-1-ND</t>
+  </si>
+  <si>
+    <t xml:space="preserve">490-1691-1-ND </t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>C3, C4, C5, C7, C8, C12, C13, C14, C16, C17, C19, C21,C35, C36, C38, C42, C43, C44, C46, C47, C49, C51</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>Num</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>C27, C28, C57, C58</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>C9, C23, C29, C30, C39, C53, C59, C60</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>C2, C6, C11, C15, C37, C41, C45</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>C10, C18, C20, C22, C26, C40, C48, C50, C52, C56</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>C25, C55</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>C24, C31, C32, C33, C34, C54, C61, C62, C63, C64</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>J2, J5, J6, J9</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>JP2, JP3</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>L1, L2, L3, L4</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>SV1, SV2</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>SW1, SW2</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>T1, T2</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>U3, U4</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>R6, R8, R26, R28</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>R5, R7, R9, R14, R25, R27, R29, R34</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>R10, R11, R15, R16, R17, R18, R30, R31, R35, R36, R37, R38</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>R3, R24</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>R12, R32</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>R4, R19, R20, R21, R22, R39, R40, R41, R42</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>R2, R43</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>R13, R33</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>J4, J8</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>J3, J7</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>RCA_JACK</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>Through Hole</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>Audio Connector</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>SC1313-ND</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>336-3817-1-ND</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>a</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
     <t>CP-1435-ND</t>
     <phoneticPr fontId="18"/>
   </si>
   <si>
     <t>CP-1419-ND</t>
-  </si>
-  <si>
-    <t>Audio Connector</t>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
-    <t>Audio Connector</t>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
-    <t>2x5</t>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
-    <t>2x6</t>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
-    <t>Pin Header</t>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
-    <t>BGM113</t>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
-    <t>LGA Module</t>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
-    <t>DC_JACK</t>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
-    <t>Power Connector</t>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
-    <t>Bluetooth Module</t>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
-    <t>336-3817-1-ND</t>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
-    <t>GREEN</t>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
-    <t>RED</t>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
-    <t>67-1002-1-ND</t>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
-    <t>LED</t>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
-    <t>67-1003-1-ND</t>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
-    <t>600ohm@100MHz</t>
-  </si>
-  <si>
-    <t>490-14396-1-ND</t>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
-    <t>Ferrite Beads</t>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
-    <t>1608</t>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
-    <t>1608</t>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
-    <t>1608</t>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
-    <t>2012</t>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
-    <t>2012</t>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
-    <t>2012</t>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
-    <t>2</t>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
-    <t>P49.9KHCT-ND</t>
-  </si>
-  <si>
-    <t>P56.2HCT-ND</t>
-  </si>
-  <si>
-    <t>P10.0KHCT-ND</t>
-  </si>
-  <si>
-    <t>P18.0KHCT-ND</t>
-  </si>
-  <si>
-    <t>P1.00KHCT-ND</t>
-  </si>
-  <si>
-    <t>P0.0ACT-ND</t>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
-    <t>P100KHCT-ND</t>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
-    <t>P8.06KHCT-ND</t>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
-    <t>P475HCT-ND</t>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
-    <t>P562HCT-ND</t>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
-    <t>Resistor</t>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
-    <t>Resistor</t>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
-    <t>Resistor</t>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
-    <t xml:space="preserve">490-1683-6-ND </t>
-  </si>
-  <si>
-    <t>Multilayer Ceramic Capacitor</t>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
-    <t>Multilayer Ceramic Capacitor</t>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
-    <t xml:space="preserve">490-1662-1-ND </t>
-  </si>
-  <si>
-    <t>490-1615-1-ND</t>
-  </si>
-  <si>
-    <t xml:space="preserve">399-1153-1-ND </t>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
-    <t>490-3905-1-ND</t>
-  </si>
-  <si>
-    <t>718-1313-1-ND</t>
-  </si>
-  <si>
-    <t>Tantalum Capacitor</t>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
-    <t>Tantalum Capacitor</t>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
-    <t>3528</t>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
-    <t>478-8115-1-ND</t>
-  </si>
-  <si>
-    <t xml:space="preserve">490-1691-1-ND </t>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
-    <t>C3, C4, C5, C7, C8, C12, C13, C14, C16, C17, C19, C21,C35, C36, C38, C42, C43, C44, C46, C47, C49, C51</t>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
-    <t>Num</t>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
-    <t>22</t>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
-    <t>C27, C28, C57, C58</t>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
-    <t>4</t>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
-    <t>C9, C23, C29, C30, C39, C53, C59, C60</t>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
-    <t>8</t>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
-    <t>C2, C6, C11, C15, C37, C41, C45</t>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
-    <t>7</t>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
-    <t>C10, C18, C20, C22, C26, C40, C48, C50, C52, C56</t>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
-    <t>10</t>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
-    <t>1</t>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
-    <t>2</t>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
-    <t>C25, C55</t>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
-    <t>C24, C31, C32, C33, C34, C54, C61, C62, C63, C64</t>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
-    <t>4</t>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
-    <t>2</t>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
-    <t>J2, J5, J6, J9</t>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
-    <t>J3, J4, J7, J8</t>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
-    <t>1</t>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
-    <t>2</t>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
-    <t>JP2, JP3</t>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
-    <t>L1, L2, L3, L4</t>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
-    <t>1</t>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
-    <t>2</t>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
-    <t>SV1, SV2</t>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
-    <t>SW1, SW2</t>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
-    <t>T1, T2</t>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
-    <t>U3, U4</t>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
-    <t>1</t>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
-    <t>9</t>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
-    <t>2</t>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
-    <t>12</t>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
-    <t>R6, R8, R26, R28</t>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
-    <t>R5, R7, R9, R14, R25, R27, R29, R34</t>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
-    <t>R10, R11, R15, R16, R17, R18, R30, R31, R35, R36, R37, R38</t>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
-    <t>R3, R24</t>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
-    <t>R12, R32</t>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
-    <t>R4, R19, R20, R21, R22, R39, R40, R41, R42</t>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
-    <t>R2, R43</t>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
-    <t>R13, R33</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>CP-1420-ND</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>EG4328-ND</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t xml:space="preserve">SW426-ND </t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>SER4107CT-ND</t>
     <phoneticPr fontId="18"/>
   </si>
 </sst>
@@ -645,7 +607,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="21" x14ac:knownFonts="1">
+  <fonts count="22" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -820,6 +782,13 @@
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <name val="游ゴシック"/>
+      <family val="2"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -1285,7 +1254,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1326,6 +1295,18 @@
       <alignment vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" shrinkToFit="1"/>
     </xf>
   </cellXfs>
@@ -1691,10 +1672,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G39"/>
+  <dimension ref="A1:H41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="A24" sqref="A24"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="A43" sqref="A43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -1708,7 +1689,7 @@
     <col min="7" max="7" width="7.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:8" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
@@ -1719,7 +1700,7 @@
         <v>2</v>
       </c>
       <c r="D1" s="8" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="E1" s="7" t="s">
         <v>36</v>
@@ -1729,112 +1710,112 @@
       </c>
       <c r="G1" s="7"/>
     </row>
-    <row r="2" spans="1:7" ht="19.5" thickTop="1" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:8" ht="19.5" thickTop="1" x14ac:dyDescent="0.4">
       <c r="A2" s="1" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>6</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>128</v>
+        <v>91</v>
+      </c>
+      <c r="D2" s="15">
+        <v>22</v>
       </c>
       <c r="E2" s="9" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="F2" s="9" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="G2" s="1"/>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A3" s="1" t="s">
-        <v>129</v>
+        <v>122</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>10</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>130</v>
+        <v>92</v>
+      </c>
+      <c r="D3" s="15">
+        <v>4</v>
       </c>
       <c r="E3" s="9" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="F3" s="9" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="G3" s="1"/>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A4" s="1" t="s">
-        <v>131</v>
+        <v>123</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>7</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>123</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>132</v>
+        <v>117</v>
+      </c>
+      <c r="D4" s="15">
+        <v>8</v>
       </c>
       <c r="E4" s="9" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="F4" s="9" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
       <c r="G4" s="1"/>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A5" s="1" t="s">
-        <v>133</v>
+        <v>124</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>5</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>134</v>
+        <v>93</v>
+      </c>
+      <c r="D5" s="15">
+        <v>7</v>
       </c>
       <c r="E5" s="9" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="F5" s="9" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
       <c r="G5" s="1"/>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A6" s="1" t="s">
-        <v>135</v>
+        <v>125</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>5</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>136</v>
+        <v>91</v>
+      </c>
+      <c r="D6" s="15">
+        <v>10</v>
       </c>
       <c r="E6" s="9" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="F6" s="9" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
       <c r="G6" s="1"/>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A7" s="1" t="s">
         <v>3</v>
       </c>
@@ -1842,719 +1823,732 @@
         <v>4</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>137</v>
+        <v>91</v>
+      </c>
+      <c r="D7" s="15">
+        <v>1</v>
       </c>
       <c r="E7" s="9" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="F7" s="9" t="s">
-        <v>125</v>
+        <v>119</v>
       </c>
       <c r="G7" s="1"/>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A8" s="1" t="s">
-        <v>139</v>
+        <v>126</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>9</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>138</v>
+        <v>91</v>
+      </c>
+      <c r="D8" s="15">
+        <v>2</v>
       </c>
       <c r="E8" s="9" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="F8" s="9" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
       <c r="G8" s="1"/>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A9" s="1" t="s">
-        <v>140</v>
+        <v>127</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>8</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>136</v>
+        <v>91</v>
+      </c>
+      <c r="D9" s="15">
+        <v>10</v>
       </c>
       <c r="E9" s="9" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="F9" s="9" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="G9" s="1"/>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A10" s="1" t="s">
         <v>11</v>
       </c>
       <c r="B10" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="D10" s="15">
+        <v>1</v>
+      </c>
+      <c r="E10" s="9" t="s">
         <v>79</v>
       </c>
-      <c r="C10" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>137</v>
-      </c>
-      <c r="E10" s="9" t="s">
-        <v>83</v>
-      </c>
       <c r="F10" s="9" t="s">
-        <v>84</v>
+        <v>149</v>
       </c>
       <c r="G10" s="1"/>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="H10" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A11" s="1" t="s">
         <v>12</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="D11" s="2" t="s">
-        <v>137</v>
+      <c r="D11" s="15">
+        <v>1</v>
       </c>
       <c r="E11" s="9" t="s">
-        <v>82</v>
-      </c>
-      <c r="F11" s="10"/>
-      <c r="G11" s="3" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.4">
+        <v>78</v>
+      </c>
+      <c r="F11" s="17" t="s">
+        <v>148</v>
+      </c>
+      <c r="G11" s="3"/>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A12" s="1" t="s">
-        <v>143</v>
+        <v>128</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="D12" s="2" t="s">
-        <v>141</v>
+      <c r="D12" s="15">
+        <v>4</v>
       </c>
       <c r="E12" s="9" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="F12" s="9" t="s">
-        <v>72</v>
-      </c>
-      <c r="G12" s="4" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.4">
+        <v>151</v>
+      </c>
+      <c r="G12" s="4"/>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A13" s="1" t="s">
         <v>144</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="D13" s="2" t="s">
-        <v>142</v>
+        <v>50</v>
+      </c>
+      <c r="D13" s="15">
+        <v>2</v>
       </c>
       <c r="E13" s="9" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="F13" s="9" t="s">
+        <v>152</v>
+      </c>
+      <c r="G13" s="4"/>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A14" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="D14" s="15">
+        <v>2</v>
+      </c>
+      <c r="E14" s="9" t="s">
+        <v>147</v>
+      </c>
+      <c r="F14" s="9" t="s">
+        <v>153</v>
+      </c>
+      <c r="G14" s="4"/>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A15" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="D15" s="15">
+        <v>1</v>
+      </c>
+      <c r="E15" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="F15" s="10"/>
+      <c r="G15" s="4" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A16" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="B16" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="G13" s="4" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A14" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="D14" s="2" t="s">
-        <v>145</v>
-      </c>
-      <c r="E14" s="9" t="s">
-        <v>55</v>
-      </c>
-      <c r="F14" s="10"/>
-      <c r="G14" s="4" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A15" s="1" t="s">
-        <v>147</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="D15" s="2" t="s">
-        <v>146</v>
-      </c>
-      <c r="E15" s="9" t="s">
-        <v>78</v>
-      </c>
-      <c r="F15" s="11"/>
-      <c r="G15" s="4" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A16" s="1" t="s">
-        <v>148</v>
-      </c>
-      <c r="B16" s="2" t="s">
-        <v>90</v>
-      </c>
       <c r="C16" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="D16" s="2" t="s">
-        <v>130</v>
+        <v>50</v>
+      </c>
+      <c r="D16" s="15">
+        <v>2</v>
       </c>
       <c r="E16" s="9" t="s">
-        <v>92</v>
-      </c>
-      <c r="F16" s="12" t="s">
-        <v>91</v>
-      </c>
-      <c r="G16" s="1"/>
+        <v>74</v>
+      </c>
+      <c r="F16" s="11"/>
+      <c r="G16" s="4" t="s">
+        <v>56</v>
+      </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A17" s="1" t="s">
-        <v>14</v>
+        <v>130</v>
       </c>
       <c r="B17" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="C17" s="2">
-        <v>3216</v>
-      </c>
-      <c r="D17" s="2" t="s">
-        <v>137</v>
+      <c r="C17" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="D17" s="15">
+        <v>4</v>
       </c>
       <c r="E17" s="9" t="s">
-        <v>88</v>
-      </c>
-      <c r="F17" s="9" t="s">
         <v>87</v>
+      </c>
+      <c r="F17" s="12" t="s">
+        <v>86</v>
       </c>
       <c r="G17" s="1"/>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A18" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="C18" s="2">
         <v>3216</v>
       </c>
-      <c r="D18" s="2" t="s">
-        <v>137</v>
+      <c r="D18" s="15">
+        <v>1</v>
       </c>
       <c r="E18" s="9" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="F18" s="9" t="s">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="G18" s="1"/>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A19" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="C19" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="D19" s="2" t="s">
-        <v>137</v>
+        <v>81</v>
+      </c>
+      <c r="C19" s="2">
+        <v>3216</v>
+      </c>
+      <c r="D19" s="15">
+        <v>1</v>
       </c>
       <c r="E19" s="9" t="s">
-        <v>110</v>
+        <v>83</v>
       </c>
       <c r="F19" s="9" t="s">
-        <v>106</v>
+        <v>84</v>
       </c>
       <c r="G19" s="1"/>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A20" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="B20" s="2">
-        <v>0</v>
+        <v>16</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>17</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="D20" s="2" t="s">
-        <v>137</v>
+        <v>89</v>
+      </c>
+      <c r="D20" s="15">
+        <v>1</v>
       </c>
       <c r="E20" s="9" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="F20" s="9" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="G20" s="1"/>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A21" s="1" t="s">
-        <v>166</v>
+        <v>24</v>
       </c>
       <c r="B21" s="2">
-        <v>475</v>
+        <v>0</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="D21" s="2" t="s">
-        <v>138</v>
+        <v>89</v>
+      </c>
+      <c r="D21" s="15">
+        <v>1</v>
       </c>
       <c r="E21" s="9" t="s">
-        <v>111</v>
+        <v>104</v>
       </c>
       <c r="F21" s="9" t="s">
-        <v>108</v>
+        <v>99</v>
       </c>
       <c r="G21" s="1"/>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A22" s="1" t="s">
-        <v>165</v>
+        <v>142</v>
       </c>
       <c r="B22" s="2">
-        <v>562</v>
+        <v>475</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="D22" s="2" t="s">
-        <v>138</v>
+        <v>90</v>
+      </c>
+      <c r="D22" s="15">
+        <v>2</v>
       </c>
       <c r="E22" s="9" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
       <c r="F22" s="9" t="s">
-        <v>109</v>
+        <v>102</v>
       </c>
       <c r="G22" s="1"/>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A23" s="1" t="s">
-        <v>164</v>
-      </c>
-      <c r="B23" s="2" t="s">
-        <v>19</v>
+        <v>141</v>
+      </c>
+      <c r="B23" s="2">
+        <v>562</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="D23" s="2" t="s">
-        <v>156</v>
+        <v>89</v>
+      </c>
+      <c r="D23" s="15">
+        <v>2</v>
       </c>
       <c r="E23" s="9" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
       <c r="F23" s="9" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="G23" s="1"/>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A24" s="1" t="s">
-        <v>163</v>
+        <v>140</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="D24" s="2" t="s">
-        <v>99</v>
+        <v>89</v>
+      </c>
+      <c r="D24" s="15">
+        <v>9</v>
       </c>
       <c r="E24" s="9" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="F24" s="9" t="s">
-        <v>103</v>
+        <v>96</v>
       </c>
       <c r="G24" s="1"/>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A25" s="1" t="s">
-        <v>162</v>
+        <v>139</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="D25" s="2" t="s">
-        <v>157</v>
+        <v>90</v>
+      </c>
+      <c r="D25" s="15">
+        <v>2</v>
       </c>
       <c r="E25" s="9" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="F25" s="9" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
       <c r="G25" s="1"/>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A26" s="1" t="s">
-        <v>161</v>
+        <v>138</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="D26" s="2" t="s">
-        <v>158</v>
+        <v>89</v>
+      </c>
+      <c r="D26" s="15">
+        <v>2</v>
       </c>
       <c r="E26" s="9" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="F26" s="9" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="G26" s="1"/>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A27" s="1" t="s">
-        <v>160</v>
+        <v>137</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C27" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="D27" s="15">
+        <v>12</v>
+      </c>
+      <c r="E27" s="9" t="s">
+        <v>104</v>
+      </c>
+      <c r="F27" s="9" t="s">
         <v>94</v>
-      </c>
-      <c r="D27" s="2" t="s">
-        <v>132</v>
-      </c>
-      <c r="E27" s="9" t="s">
-        <v>110</v>
-      </c>
-      <c r="F27" s="9" t="s">
-        <v>101</v>
       </c>
       <c r="G27" s="1"/>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A28" s="1" t="s">
-        <v>159</v>
+        <v>136</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="D28" s="2" t="s">
-        <v>141</v>
+        <v>89</v>
+      </c>
+      <c r="D28" s="15">
+        <v>8</v>
       </c>
       <c r="E28" s="9" t="s">
-        <v>112</v>
+        <v>104</v>
       </c>
       <c r="F28" s="9" t="s">
-        <v>107</v>
+        <v>95</v>
       </c>
       <c r="G28" s="1"/>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A29" s="1" t="s">
-        <v>25</v>
+        <v>135</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>42</v>
+        <v>21</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="D29" s="2" t="s">
-        <v>149</v>
+        <v>89</v>
+      </c>
+      <c r="D29" s="15">
+        <v>4</v>
       </c>
       <c r="E29" s="9" t="s">
-        <v>39</v>
+        <v>106</v>
       </c>
       <c r="F29" s="9" t="s">
-        <v>44</v>
-      </c>
-      <c r="G29" s="4" t="s">
-        <v>58</v>
-      </c>
+        <v>101</v>
+      </c>
+      <c r="G29" s="1"/>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A30" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C30" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="D30" s="2" t="s">
-        <v>137</v>
+      <c r="D30" s="15">
+        <v>1</v>
       </c>
       <c r="E30" s="9" t="s">
         <v>39</v>
       </c>
       <c r="F30" s="9" t="s">
-        <v>44</v>
-      </c>
-      <c r="G30" s="4" t="s">
-        <v>58</v>
-      </c>
+        <v>154</v>
+      </c>
+      <c r="G30" s="4"/>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A31" s="1" t="s">
-        <v>151</v>
+        <v>26</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>57</v>
+        <v>43</v>
       </c>
       <c r="C31" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="D31" s="2" t="s">
-        <v>150</v>
+      <c r="D31" s="15">
+        <v>1</v>
       </c>
       <c r="E31" s="9" t="s">
-        <v>55</v>
-      </c>
-      <c r="F31" s="10"/>
-      <c r="G31" s="4" t="s">
-        <v>58</v>
-      </c>
+        <v>39</v>
+      </c>
+      <c r="F31" s="9" t="s">
+        <v>155</v>
+      </c>
+      <c r="G31" s="4"/>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A32" s="1" t="s">
-        <v>152</v>
+        <v>131</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>38</v>
+        <v>55</v>
       </c>
       <c r="C32" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="D32" s="2" t="s">
-        <v>99</v>
+      <c r="D32" s="15">
+        <v>2</v>
       </c>
       <c r="E32" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="F32" s="9" t="s">
-        <v>41</v>
-      </c>
+        <v>53</v>
+      </c>
+      <c r="F32" s="10"/>
       <c r="G32" s="4" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A33" s="1" t="s">
-        <v>153</v>
+        <v>132</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="D33" s="2" t="s">
-        <v>99</v>
+        <v>40</v>
+      </c>
+      <c r="D33" s="15">
+        <v>2</v>
       </c>
       <c r="E33" s="9" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="F33" s="9" t="s">
-        <v>45</v>
-      </c>
-      <c r="G33" s="1"/>
+        <v>41</v>
+      </c>
+      <c r="G33" s="4"/>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A34" s="1" t="s">
-        <v>28</v>
+        <v>133</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>59</v>
+        <v>45</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="D34" s="2" t="s">
-        <v>137</v>
+        <v>27</v>
+      </c>
+      <c r="D34" s="15">
+        <v>2</v>
       </c>
       <c r="E34" s="9" t="s">
-        <v>60</v>
+        <v>46</v>
       </c>
       <c r="F34" s="9" t="s">
-        <v>61</v>
+        <v>44</v>
       </c>
       <c r="G34" s="1"/>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A35" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="D35" s="2" t="s">
-        <v>137</v>
+        <v>29</v>
+      </c>
+      <c r="D35" s="15">
+        <v>1</v>
       </c>
       <c r="E35" s="9" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="F35" s="9" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="G35" s="1"/>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A36" s="1" t="s">
-        <v>154</v>
+        <v>30</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="D36" s="2" t="s">
-        <v>99</v>
+        <v>61</v>
+      </c>
+      <c r="D36" s="15">
+        <v>1</v>
       </c>
       <c r="E36" s="9" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="F36" s="9" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="G36" s="1"/>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A37" s="1" t="s">
-        <v>31</v>
+        <v>134</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>51</v>
+        <v>64</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="D37" s="2" t="s">
-        <v>155</v>
+        <v>65</v>
+      </c>
+      <c r="D37" s="15">
+        <v>2</v>
       </c>
       <c r="E37" s="9" t="s">
-        <v>56</v>
+        <v>66</v>
       </c>
       <c r="F37" s="9" t="s">
-        <v>53</v>
-      </c>
-      <c r="G37" s="3" t="s">
-        <v>58</v>
-      </c>
+        <v>67</v>
+      </c>
+      <c r="G37" s="1"/>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A38" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B38" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="C38" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="D38" s="15">
+        <v>1</v>
+      </c>
+      <c r="E38" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="F38" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="G38" s="3"/>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A39" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="B38" s="2" t="s">
+      <c r="B39" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="C38" s="2" t="s">
+      <c r="C39" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="D39" s="15">
+        <v>1</v>
+      </c>
+      <c r="E39" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="F39" s="9" t="s">
         <v>52</v>
       </c>
-      <c r="D38" s="2" t="s">
-        <v>137</v>
-      </c>
-      <c r="E38" s="9" t="s">
-        <v>56</v>
-      </c>
-      <c r="F38" s="9" t="s">
-        <v>54</v>
-      </c>
-      <c r="G38" s="4" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A39" s="5" t="s">
+      <c r="G39" s="4"/>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A40" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="B39" s="6" t="s">
+      <c r="B40" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="C39" s="6" t="s">
+      <c r="C40" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="D40" s="16">
+        <v>1</v>
+      </c>
+      <c r="E40" s="13" t="s">
         <v>48</v>
       </c>
-      <c r="D39" s="6" t="s">
-        <v>137</v>
-      </c>
-      <c r="E39" s="13" t="s">
-        <v>50</v>
-      </c>
-      <c r="F39" s="13" t="s">
-        <v>49</v>
-      </c>
-      <c r="G39" s="5"/>
+      <c r="F40" s="13" t="s">
+        <v>156</v>
+      </c>
+      <c r="G40" s="5"/>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="D41" s="14"/>
     </row>
   </sheetData>
-  <sortState ref="A20:G28">
-    <sortCondition ref="B20:B28"/>
+  <sortState ref="A21:G29">
+    <sortCondition ref="B21:B29"/>
   </sortState>
   <phoneticPr fontId="18"/>
-  <conditionalFormatting sqref="A1:G39">
+  <conditionalFormatting sqref="A1:G40">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <pageMargins left="0.36" right="0.32" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.36" right="0.32" top="0.75" bottom="0.37" header="0.3" footer="0.3"/>
   <pageSetup paperSize="8" orientation="landscape" r:id="rId1"/>
   <ignoredErrors>
-    <ignoredError sqref="C16 C1 C17:C19" numberStoredAsText="1"/>
+    <ignoredError sqref="C17 C1 C18:C20" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/bom_partlist/sigma_mix_partlist.xlsx
+++ b/bom_partlist/sigma_mix_partlist.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18229"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18201"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -14,12 +14,12 @@
   <sheets>
     <sheet name="partslist" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="197" uniqueCount="157">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="236" uniqueCount="167">
   <si>
     <t>Part</t>
   </si>
@@ -161,6 +161,9 @@
     <phoneticPr fontId="18"/>
   </si>
   <si>
+    <t>EG4328-ND</t>
+  </si>
+  <si>
     <t>ZXTP25040DFHCT-ND</t>
     <phoneticPr fontId="18"/>
   </si>
@@ -174,6 +177,10 @@
   </si>
   <si>
     <t>SMD</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>535-10902-1-ND</t>
     <phoneticPr fontId="18"/>
   </si>
   <si>
@@ -267,6 +274,13 @@
     <phoneticPr fontId="18"/>
   </si>
   <si>
+    <t>CP-1435-ND</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>CP-1419-ND</t>
+  </si>
+  <si>
     <t>Audio Connector</t>
     <phoneticPr fontId="18"/>
   </si>
@@ -307,6 +321,10 @@
     <phoneticPr fontId="18"/>
   </si>
   <si>
+    <t>336-3817-1-ND</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
     <t>GREEN</t>
     <phoneticPr fontId="18"/>
   </si>
@@ -362,6 +380,10 @@
     <phoneticPr fontId="18"/>
   </si>
   <si>
+    <t>2</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
     <t>P49.9KHCT-ND</t>
   </si>
   <si>
@@ -463,22 +485,50 @@
     <phoneticPr fontId="18"/>
   </si>
   <si>
+    <t>22</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
     <t>C27, C28, C57, C58</t>
     <phoneticPr fontId="18"/>
   </si>
   <si>
+    <t>4</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
     <t>C9, C23, C29, C30, C39, C53, C59, C60</t>
     <phoneticPr fontId="18"/>
   </si>
   <si>
+    <t>8</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
     <t>C2, C6, C11, C15, C37, C41, C45</t>
     <phoneticPr fontId="18"/>
   </si>
   <si>
+    <t>7</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
     <t>C10, C18, C20, C22, C26, C40, C48, C50, C52, C56</t>
     <phoneticPr fontId="18"/>
   </si>
   <si>
+    <t>10</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>1</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>2</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
     <t>C25, C55</t>
     <phoneticPr fontId="18"/>
   </si>
@@ -487,10 +537,30 @@
     <phoneticPr fontId="18"/>
   </si>
   <si>
+    <t>4</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>2</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
     <t>J2, J5, J6, J9</t>
     <phoneticPr fontId="18"/>
   </si>
   <si>
+    <t>J3, J4, J7, J8</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>1</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>2</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
     <t>JP2, JP3</t>
     <phoneticPr fontId="18"/>
   </si>
@@ -499,6 +569,14 @@
     <phoneticPr fontId="18"/>
   </si>
   <si>
+    <t>1</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>2</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
     <t>SV1, SV2</t>
     <phoneticPr fontId="18"/>
   </si>
@@ -515,6 +593,22 @@
     <phoneticPr fontId="18"/>
   </si>
   <si>
+    <t>1</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>9</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>2</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>12</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
     <t>R6, R8, R26, R28</t>
     <phoneticPr fontId="18"/>
   </si>
@@ -544,62 +638,6 @@
   </si>
   <si>
     <t>R13, R33</t>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
-    <t>J4, J8</t>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
-    <t>J3, J7</t>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
-    <t>RCA_JACK</t>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
-    <t>Through Hole</t>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
-    <t>Audio Connector</t>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
-    <t>SC1313-ND</t>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
-    <t>336-3817-1-ND</t>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
-    <t>a</t>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
-    <t>CP-1435-ND</t>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
-    <t>CP-1419-ND</t>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
-    <t>CP-1420-ND</t>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
-    <t>EG4328-ND</t>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
-    <t xml:space="preserve">SW426-ND </t>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
-    <t>SER4107CT-ND</t>
     <phoneticPr fontId="18"/>
   </si>
 </sst>
@@ -607,7 +645,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="22" x14ac:knownFonts="1">
+  <fonts count="21" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -782,13 +820,6 @@
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <name val="游ゴシック"/>
-      <family val="2"/>
-      <charset val="128"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -1254,7 +1285,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1295,18 +1326,6 @@
       <alignment vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" shrinkToFit="1"/>
     </xf>
   </cellXfs>
@@ -1672,10 +1691,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H41"/>
+  <dimension ref="A1:G39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="A43" sqref="A43"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="A24" sqref="A24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -1689,7 +1708,7 @@
     <col min="7" max="7" width="7.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:7" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
@@ -1700,7 +1719,7 @@
         <v>2</v>
       </c>
       <c r="D1" s="8" t="s">
-        <v>121</v>
+        <v>127</v>
       </c>
       <c r="E1" s="7" t="s">
         <v>36</v>
@@ -1710,112 +1729,112 @@
       </c>
       <c r="G1" s="7"/>
     </row>
-    <row r="2" spans="1:8" ht="19.5" thickTop="1" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:7" ht="19.5" thickTop="1" x14ac:dyDescent="0.4">
       <c r="A2" s="1" t="s">
-        <v>120</v>
+        <v>126</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>6</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="D2" s="15">
-        <v>22</v>
+        <v>96</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>128</v>
       </c>
       <c r="E2" s="9" t="s">
-        <v>108</v>
+        <v>114</v>
       </c>
       <c r="F2" s="9" t="s">
-        <v>107</v>
+        <v>113</v>
       </c>
       <c r="G2" s="1"/>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A3" s="1" t="s">
-        <v>122</v>
+        <v>129</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>10</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="D3" s="15">
-        <v>4</v>
+        <v>97</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>130</v>
       </c>
       <c r="E3" s="9" t="s">
-        <v>108</v>
+        <v>114</v>
       </c>
       <c r="F3" s="9" t="s">
-        <v>111</v>
+        <v>117</v>
       </c>
       <c r="G3" s="1"/>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A4" s="1" t="s">
-        <v>123</v>
+        <v>131</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>7</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="D4" s="15">
-        <v>8</v>
+        <v>123</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>132</v>
       </c>
       <c r="E4" s="9" t="s">
-        <v>116</v>
+        <v>122</v>
       </c>
       <c r="F4" s="9" t="s">
-        <v>114</v>
+        <v>120</v>
       </c>
       <c r="G4" s="1"/>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A5" s="1" t="s">
-        <v>124</v>
+        <v>133</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>5</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="D5" s="15">
-        <v>7</v>
+        <v>98</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>134</v>
       </c>
       <c r="E5" s="9" t="s">
-        <v>115</v>
+        <v>121</v>
       </c>
       <c r="F5" s="9" t="s">
-        <v>118</v>
+        <v>124</v>
       </c>
       <c r="G5" s="1"/>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A6" s="1" t="s">
-        <v>125</v>
+        <v>135</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>5</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="D6" s="15">
-        <v>10</v>
+        <v>96</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>136</v>
       </c>
       <c r="E6" s="9" t="s">
-        <v>109</v>
+        <v>115</v>
       </c>
       <c r="F6" s="9" t="s">
-        <v>113</v>
+        <v>119</v>
       </c>
       <c r="G6" s="1"/>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A7" s="1" t="s">
         <v>3</v>
       </c>
@@ -1823,732 +1842,719 @@
         <v>4</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="D7" s="15">
-        <v>1</v>
+        <v>96</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>137</v>
       </c>
       <c r="E7" s="9" t="s">
-        <v>108</v>
+        <v>114</v>
       </c>
       <c r="F7" s="9" t="s">
-        <v>119</v>
+        <v>125</v>
       </c>
       <c r="G7" s="1"/>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A8" s="1" t="s">
-        <v>126</v>
+        <v>139</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>9</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="D8" s="15">
-        <v>2</v>
+        <v>96</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>138</v>
       </c>
       <c r="E8" s="9" t="s">
-        <v>108</v>
+        <v>114</v>
       </c>
       <c r="F8" s="9" t="s">
-        <v>112</v>
+        <v>118</v>
       </c>
       <c r="G8" s="1"/>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A9" s="1" t="s">
-        <v>127</v>
+        <v>140</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>8</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="D9" s="15">
-        <v>10</v>
+        <v>96</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>136</v>
       </c>
       <c r="E9" s="9" t="s">
-        <v>108</v>
+        <v>114</v>
       </c>
       <c r="F9" s="9" t="s">
-        <v>110</v>
+        <v>116</v>
       </c>
       <c r="G9" s="1"/>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A10" s="1" t="s">
         <v>11</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="D10" s="15">
-        <v>1</v>
+        <v>80</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>137</v>
       </c>
       <c r="E10" s="9" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="F10" s="9" t="s">
-        <v>149</v>
+        <v>84</v>
       </c>
       <c r="G10" s="1"/>
-      <c r="H10" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.4">
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A11" s="1" t="s">
         <v>12</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="D11" s="15">
-        <v>1</v>
+      <c r="D11" s="2" t="s">
+        <v>137</v>
       </c>
       <c r="E11" s="9" t="s">
-        <v>78</v>
-      </c>
-      <c r="F11" s="17" t="s">
-        <v>148</v>
-      </c>
-      <c r="G11" s="3"/>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.4">
+        <v>82</v>
+      </c>
+      <c r="F11" s="10"/>
+      <c r="G11" s="3" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A12" s="1" t="s">
-        <v>128</v>
+        <v>143</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="D12" s="15">
-        <v>4</v>
+      <c r="D12" s="2" t="s">
+        <v>141</v>
       </c>
       <c r="E12" s="9" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="F12" s="9" t="s">
-        <v>151</v>
-      </c>
-      <c r="G12" s="4"/>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.4">
+        <v>72</v>
+      </c>
+      <c r="G12" s="4" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A13" s="1" t="s">
         <v>144</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="D13" s="15">
-        <v>2</v>
+        <v>52</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>142</v>
       </c>
       <c r="E13" s="9" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="F13" s="9" t="s">
-        <v>152</v>
-      </c>
-      <c r="G13" s="4"/>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.4">
+        <v>73</v>
+      </c>
+      <c r="G13" s="4" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A14" s="1" t="s">
-        <v>143</v>
+        <v>13</v>
       </c>
       <c r="B14" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="D14" s="2" t="s">
         <v>145</v>
       </c>
-      <c r="C14" s="2" t="s">
+      <c r="E14" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="F14" s="10"/>
+      <c r="G14" s="4" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A15" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="D15" s="2" t="s">
         <v>146</v>
       </c>
-      <c r="D14" s="15">
-        <v>2</v>
-      </c>
-      <c r="E14" s="9" t="s">
-        <v>147</v>
-      </c>
-      <c r="F14" s="9" t="s">
-        <v>153</v>
-      </c>
-      <c r="G14" s="4"/>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A15" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="D15" s="15">
-        <v>1</v>
-      </c>
       <c r="E15" s="9" t="s">
-        <v>53</v>
-      </c>
-      <c r="F15" s="10"/>
+        <v>78</v>
+      </c>
+      <c r="F15" s="11"/>
       <c r="G15" s="4" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.4">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A16" s="1" t="s">
-        <v>129</v>
+        <v>148</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>73</v>
+        <v>90</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="D16" s="15">
-        <v>2</v>
+        <v>93</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>130</v>
       </c>
       <c r="E16" s="9" t="s">
-        <v>74</v>
-      </c>
-      <c r="F16" s="11"/>
-      <c r="G16" s="4" t="s">
-        <v>56</v>
-      </c>
+        <v>92</v>
+      </c>
+      <c r="F16" s="12" t="s">
+        <v>91</v>
+      </c>
+      <c r="G16" s="1"/>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A17" s="1" t="s">
-        <v>130</v>
+        <v>14</v>
       </c>
       <c r="B17" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="C17" s="2" t="s">
+      <c r="C17" s="2">
+        <v>3216</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="E17" s="9" t="s">
         <v>88</v>
       </c>
-      <c r="D17" s="15">
-        <v>4</v>
-      </c>
-      <c r="E17" s="9" t="s">
+      <c r="F17" s="9" t="s">
         <v>87</v>
-      </c>
-      <c r="F17" s="12" t="s">
-        <v>86</v>
       </c>
       <c r="G17" s="1"/>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A18" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="C18" s="2">
         <v>3216</v>
       </c>
-      <c r="D18" s="15">
-        <v>1</v>
+      <c r="D18" s="2" t="s">
+        <v>137</v>
       </c>
       <c r="E18" s="9" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="F18" s="9" t="s">
-        <v>82</v>
+        <v>89</v>
       </c>
       <c r="G18" s="1"/>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A19" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="C19" s="2">
-        <v>3216</v>
-      </c>
-      <c r="D19" s="15">
-        <v>1</v>
+        <v>17</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>137</v>
       </c>
       <c r="E19" s="9" t="s">
-        <v>83</v>
+        <v>110</v>
       </c>
       <c r="F19" s="9" t="s">
-        <v>84</v>
+        <v>106</v>
       </c>
       <c r="G19" s="1"/>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A20" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B20" s="2" t="s">
-        <v>17</v>
+        <v>24</v>
+      </c>
+      <c r="B20" s="2">
+        <v>0</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="D20" s="15">
-        <v>1</v>
+        <v>94</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>137</v>
       </c>
       <c r="E20" s="9" t="s">
-        <v>104</v>
+        <v>110</v>
       </c>
       <c r="F20" s="9" t="s">
-        <v>100</v>
+        <v>105</v>
       </c>
       <c r="G20" s="1"/>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A21" s="1" t="s">
-        <v>24</v>
+        <v>166</v>
       </c>
       <c r="B21" s="2">
-        <v>0</v>
+        <v>475</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="D21" s="15">
-        <v>1</v>
+        <v>95</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>138</v>
       </c>
       <c r="E21" s="9" t="s">
-        <v>104</v>
+        <v>111</v>
       </c>
       <c r="F21" s="9" t="s">
-        <v>99</v>
+        <v>108</v>
       </c>
       <c r="G21" s="1"/>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A22" s="1" t="s">
-        <v>142</v>
+        <v>165</v>
       </c>
       <c r="B22" s="2">
-        <v>475</v>
+        <v>562</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="D22" s="15">
-        <v>2</v>
+        <v>94</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>138</v>
       </c>
       <c r="E22" s="9" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="F22" s="9" t="s">
-        <v>102</v>
+        <v>109</v>
       </c>
       <c r="G22" s="1"/>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A23" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="B23" s="2">
-        <v>562</v>
+        <v>164</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>19</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="D23" s="15">
-        <v>2</v>
+        <v>94</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>156</v>
       </c>
       <c r="E23" s="9" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="F23" s="9" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="G23" s="1"/>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A24" s="1" t="s">
-        <v>140</v>
+        <v>163</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="D24" s="15">
-        <v>9</v>
+        <v>95</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>99</v>
       </c>
       <c r="E24" s="9" t="s">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="F24" s="9" t="s">
-        <v>96</v>
+        <v>103</v>
       </c>
       <c r="G24" s="1"/>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A25" s="1" t="s">
-        <v>139</v>
+        <v>162</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="D25" s="15">
-        <v>2</v>
+        <v>94</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>157</v>
       </c>
       <c r="E25" s="9" t="s">
+        <v>110</v>
+      </c>
+      <c r="F25" s="9" t="s">
         <v>104</v>
-      </c>
-      <c r="F25" s="9" t="s">
-        <v>97</v>
       </c>
       <c r="G25" s="1"/>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A26" s="1" t="s">
-        <v>138</v>
+        <v>161</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="D26" s="15">
-        <v>2</v>
+        <v>94</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>158</v>
       </c>
       <c r="E26" s="9" t="s">
-        <v>104</v>
+        <v>110</v>
       </c>
       <c r="F26" s="9" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="G26" s="1"/>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A27" s="1" t="s">
-        <v>137</v>
+        <v>160</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="D27" s="15">
-        <v>12</v>
+        <v>94</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>132</v>
       </c>
       <c r="E27" s="9" t="s">
-        <v>104</v>
+        <v>110</v>
       </c>
       <c r="F27" s="9" t="s">
-        <v>94</v>
+        <v>101</v>
       </c>
       <c r="G27" s="1"/>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A28" s="1" t="s">
-        <v>136</v>
+        <v>159</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="D28" s="15">
-        <v>8</v>
+        <v>94</v>
+      </c>
+      <c r="D28" s="2" t="s">
+        <v>141</v>
       </c>
       <c r="E28" s="9" t="s">
-        <v>104</v>
+        <v>112</v>
       </c>
       <c r="F28" s="9" t="s">
-        <v>95</v>
+        <v>107</v>
       </c>
       <c r="G28" s="1"/>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A29" s="1" t="s">
-        <v>135</v>
+        <v>25</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>21</v>
+        <v>42</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="D29" s="15">
-        <v>4</v>
+        <v>40</v>
+      </c>
+      <c r="D29" s="2" t="s">
+        <v>149</v>
       </c>
       <c r="E29" s="9" t="s">
-        <v>106</v>
+        <v>39</v>
       </c>
       <c r="F29" s="9" t="s">
-        <v>101</v>
-      </c>
-      <c r="G29" s="1"/>
+        <v>44</v>
+      </c>
+      <c r="G29" s="4" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A30" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C30" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="D30" s="15">
-        <v>1</v>
+      <c r="D30" s="2" t="s">
+        <v>137</v>
       </c>
       <c r="E30" s="9" t="s">
         <v>39</v>
       </c>
       <c r="F30" s="9" t="s">
-        <v>154</v>
-      </c>
-      <c r="G30" s="4"/>
+        <v>44</v>
+      </c>
+      <c r="G30" s="4" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A31" s="1" t="s">
-        <v>26</v>
+        <v>151</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>43</v>
+        <v>57</v>
       </c>
       <c r="C31" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="D31" s="15">
-        <v>1</v>
+      <c r="D31" s="2" t="s">
+        <v>150</v>
       </c>
       <c r="E31" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="F31" s="9" t="s">
-        <v>155</v>
-      </c>
-      <c r="G31" s="4"/>
+        <v>55</v>
+      </c>
+      <c r="F31" s="10"/>
+      <c r="G31" s="4" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A32" s="1" t="s">
-        <v>131</v>
+        <v>152</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>55</v>
+        <v>38</v>
       </c>
       <c r="C32" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="D32" s="15">
-        <v>2</v>
+      <c r="D32" s="2" t="s">
+        <v>99</v>
       </c>
       <c r="E32" s="9" t="s">
-        <v>53</v>
-      </c>
-      <c r="F32" s="10"/>
+        <v>39</v>
+      </c>
+      <c r="F32" s="9" t="s">
+        <v>41</v>
+      </c>
       <c r="G32" s="4" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A33" s="1" t="s">
-        <v>132</v>
+        <v>153</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>38</v>
+        <v>46</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="D33" s="15">
-        <v>2</v>
+        <v>27</v>
+      </c>
+      <c r="D33" s="2" t="s">
+        <v>99</v>
       </c>
       <c r="E33" s="9" t="s">
-        <v>39</v>
+        <v>47</v>
       </c>
       <c r="F33" s="9" t="s">
-        <v>41</v>
-      </c>
-      <c r="G33" s="4"/>
+        <v>45</v>
+      </c>
+      <c r="G33" s="1"/>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A34" s="1" t="s">
-        <v>133</v>
+        <v>28</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>45</v>
+        <v>59</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="D34" s="15">
-        <v>2</v>
+        <v>29</v>
+      </c>
+      <c r="D34" s="2" t="s">
+        <v>137</v>
       </c>
       <c r="E34" s="9" t="s">
-        <v>46</v>
+        <v>60</v>
       </c>
       <c r="F34" s="9" t="s">
-        <v>44</v>
+        <v>61</v>
       </c>
       <c r="G34" s="1"/>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A35" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="D35" s="15">
-        <v>1</v>
+        <v>63</v>
+      </c>
+      <c r="D35" s="2" t="s">
+        <v>137</v>
       </c>
       <c r="E35" s="9" t="s">
-        <v>58</v>
+        <v>64</v>
       </c>
       <c r="F35" s="9" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="G35" s="1"/>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A36" s="1" t="s">
-        <v>30</v>
+        <v>154</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>60</v>
+        <v>66</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="D36" s="15">
-        <v>1</v>
+        <v>67</v>
+      </c>
+      <c r="D36" s="2" t="s">
+        <v>99</v>
       </c>
       <c r="E36" s="9" t="s">
-        <v>62</v>
+        <v>68</v>
       </c>
       <c r="F36" s="9" t="s">
-        <v>63</v>
+        <v>69</v>
       </c>
       <c r="G36" s="1"/>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A37" s="1" t="s">
-        <v>134</v>
+        <v>31</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>64</v>
+        <v>51</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="D37" s="15">
-        <v>2</v>
+        <v>40</v>
+      </c>
+      <c r="D37" s="2" t="s">
+        <v>155</v>
       </c>
       <c r="E37" s="9" t="s">
-        <v>66</v>
+        <v>56</v>
       </c>
       <c r="F37" s="9" t="s">
-        <v>67</v>
-      </c>
-      <c r="G37" s="1"/>
+        <v>53</v>
+      </c>
+      <c r="G37" s="3" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A38" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B38" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C38" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="D38" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="E38" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="F38" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="G38" s="4" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A39" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="B39" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="C39" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="D39" s="6" t="s">
+        <v>137</v>
+      </c>
+      <c r="E39" s="13" t="s">
+        <v>50</v>
+      </c>
+      <c r="F39" s="13" t="s">
         <v>49</v>
       </c>
-      <c r="C38" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="D38" s="15">
-        <v>1</v>
-      </c>
-      <c r="E38" s="9" t="s">
-        <v>54</v>
-      </c>
-      <c r="F38" s="9" t="s">
-        <v>51</v>
-      </c>
-      <c r="G38" s="3"/>
-    </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A39" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="B39" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="C39" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="D39" s="15">
-        <v>1</v>
-      </c>
-      <c r="E39" s="9" t="s">
-        <v>54</v>
-      </c>
-      <c r="F39" s="9" t="s">
-        <v>52</v>
-      </c>
-      <c r="G39" s="4"/>
-    </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A40" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="B40" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="C40" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="D40" s="16">
-        <v>1</v>
-      </c>
-      <c r="E40" s="13" t="s">
-        <v>48</v>
-      </c>
-      <c r="F40" s="13" t="s">
-        <v>156</v>
-      </c>
-      <c r="G40" s="5"/>
-    </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="D41" s="14"/>
+      <c r="G39" s="5"/>
     </row>
   </sheetData>
-  <sortState ref="A21:G29">
-    <sortCondition ref="B21:B29"/>
+  <sortState ref="A20:G28">
+    <sortCondition ref="B20:B28"/>
   </sortState>
   <phoneticPr fontId="18"/>
-  <conditionalFormatting sqref="A1:G40">
+  <conditionalFormatting sqref="A1:G39">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <pageMargins left="0.36" right="0.32" top="0.75" bottom="0.37" header="0.3" footer="0.3"/>
+  <pageMargins left="0.36" right="0.32" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="8" orientation="landscape" r:id="rId1"/>
   <ignoredErrors>
-    <ignoredError sqref="C17 C1 C18:C20" numberStoredAsText="1"/>
+    <ignoredError sqref="C16 C1 C17:C19" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/bom_partlist/sigma_mix_partlist.xlsx
+++ b/bom_partlist/sigma_mix_partlist.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18201"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18229"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -180,10 +180,6 @@
     <phoneticPr fontId="18"/>
   </si>
   <si>
-    <t>535-10902-1-ND</t>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
     <t>Crystal Oscillator</t>
     <phoneticPr fontId="18"/>
   </si>
@@ -638,6 +634,10 @@
   </si>
   <si>
     <t>R13, R33</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>SER4107CT-ND</t>
     <phoneticPr fontId="18"/>
   </si>
 </sst>
@@ -1693,8 +1693,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="A24" sqref="A24"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="F40" sqref="F40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -1719,7 +1719,7 @@
         <v>2</v>
       </c>
       <c r="D1" s="8" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="E1" s="7" t="s">
         <v>36</v>
@@ -1731,106 +1731,106 @@
     </row>
     <row r="2" spans="1:7" ht="19.5" thickTop="1" x14ac:dyDescent="0.4">
       <c r="A2" s="1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>6</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="E2" s="9" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="F2" s="9" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="G2" s="1"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A3" s="1" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>10</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E3" s="9" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="F3" s="9" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="G3" s="1"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A4" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>7</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E4" s="9" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="F4" s="9" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="G4" s="1"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A5" s="1" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>5</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E5" s="9" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="F5" s="9" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="G5" s="1"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A6" s="1" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>5</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="E6" s="9" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="F6" s="9" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="G6" s="1"/>
     </row>
@@ -1842,58 +1842,58 @@
         <v>4</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="E7" s="9" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="F7" s="9" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="G7" s="1"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A8" s="1" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>9</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="E8" s="9" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="F8" s="9" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="G8" s="1"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A9" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>8</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="E9" s="9" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="F9" s="9" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="G9" s="1"/>
     </row>
@@ -1902,19 +1902,19 @@
         <v>11</v>
       </c>
       <c r="B10" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="C10" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="C10" s="2" t="s">
-        <v>80</v>
-      </c>
       <c r="D10" s="2" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="E10" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="F10" s="9" t="s">
         <v>83</v>
-      </c>
-      <c r="F10" s="9" t="s">
-        <v>84</v>
       </c>
       <c r="G10" s="1"/>
     </row>
@@ -1923,66 +1923,66 @@
         <v>12</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>40</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="E11" s="9" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="F11" s="10"/>
       <c r="G11" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A12" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>40</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="E12" s="9" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="F12" s="9" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="G12" s="4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A13" s="1" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="E13" s="9" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F13" s="9" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="G13" s="4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.4">
@@ -1990,61 +1990,61 @@
         <v>13</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C14" s="2" t="s">
         <v>40</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="E14" s="9" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F14" s="10"/>
       <c r="G14" s="4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A15" s="1" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B15" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="E15" s="9" t="s">
         <v>77</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="D15" s="2" t="s">
-        <v>146</v>
-      </c>
-      <c r="E15" s="9" t="s">
-        <v>78</v>
       </c>
       <c r="F15" s="11"/>
       <c r="G15" s="4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A16" s="1" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B16" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="E16" s="9" t="s">
+        <v>91</v>
+      </c>
+      <c r="F16" s="12" t="s">
         <v>90</v>
-      </c>
-      <c r="C16" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="D16" s="2" t="s">
-        <v>130</v>
-      </c>
-      <c r="E16" s="9" t="s">
-        <v>92</v>
-      </c>
-      <c r="F16" s="12" t="s">
-        <v>91</v>
       </c>
       <c r="G16" s="1"/>
     </row>
@@ -2053,19 +2053,19 @@
         <v>14</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C17" s="2">
         <v>3216</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="E17" s="9" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="F17" s="9" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="G17" s="1"/>
     </row>
@@ -2074,19 +2074,19 @@
         <v>15</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C18" s="2">
         <v>3216</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="E18" s="9" t="s">
+        <v>87</v>
+      </c>
+      <c r="F18" s="9" t="s">
         <v>88</v>
-      </c>
-      <c r="F18" s="9" t="s">
-        <v>89</v>
       </c>
       <c r="G18" s="1"/>
     </row>
@@ -2098,16 +2098,16 @@
         <v>17</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="E19" s="9" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="F19" s="9" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="G19" s="1"/>
     </row>
@@ -2119,184 +2119,184 @@
         <v>0</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="E20" s="9" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="F20" s="9" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="G20" s="1"/>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A21" s="1" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B21" s="2">
         <v>475</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="E21" s="9" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="F21" s="9" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="G21" s="1"/>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A22" s="1" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B22" s="2">
         <v>562</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="E22" s="9" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="F22" s="9" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="G22" s="1"/>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A23" s="1" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B23" s="2" t="s">
         <v>19</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="E23" s="9" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="F23" s="9" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="G23" s="1"/>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A24" s="1" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B24" s="2" t="s">
         <v>23</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E24" s="9" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="F24" s="9" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="G24" s="1"/>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A25" s="1" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B25" s="2" t="s">
         <v>18</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="E25" s="9" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="F25" s="9" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="G25" s="1"/>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A26" s="1" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B26" s="2" t="s">
         <v>22</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="E26" s="9" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="F26" s="9" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="G26" s="1"/>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A27" s="1" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B27" s="2" t="s">
         <v>20</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E27" s="9" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="F27" s="9" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="G27" s="1"/>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A28" s="1" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B28" s="2" t="s">
         <v>21</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="E28" s="9" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="F28" s="9" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="G28" s="1"/>
     </row>
@@ -2311,7 +2311,7 @@
         <v>40</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="E29" s="9" t="s">
         <v>39</v>
@@ -2320,7 +2320,7 @@
         <v>44</v>
       </c>
       <c r="G29" s="4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.4">
@@ -2334,7 +2334,7 @@
         <v>40</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="E30" s="9" t="s">
         <v>39</v>
@@ -2343,33 +2343,33 @@
         <v>44</v>
       </c>
       <c r="G30" s="4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A31" s="1" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C31" s="2" t="s">
         <v>40</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="E31" s="9" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F31" s="10"/>
       <c r="G31" s="4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A32" s="1" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B32" s="2" t="s">
         <v>38</v>
@@ -2378,7 +2378,7 @@
         <v>40</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E32" s="9" t="s">
         <v>39</v>
@@ -2387,12 +2387,12 @@
         <v>41</v>
       </c>
       <c r="G32" s="4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A33" s="1" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B33" s="2" t="s">
         <v>46</v>
@@ -2401,7 +2401,7 @@
         <v>27</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E33" s="9" t="s">
         <v>47</v>
@@ -2416,19 +2416,19 @@
         <v>28</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C34" s="2" t="s">
         <v>29</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="E34" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="F34" s="9" t="s">
         <v>60</v>
-      </c>
-      <c r="F34" s="9" t="s">
-        <v>61</v>
       </c>
       <c r="G34" s="1"/>
     </row>
@@ -2437,40 +2437,40 @@
         <v>30</v>
       </c>
       <c r="B35" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="C35" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="C35" s="2" t="s">
+      <c r="D35" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="E35" s="9" t="s">
         <v>63</v>
       </c>
-      <c r="D35" s="2" t="s">
-        <v>137</v>
-      </c>
-      <c r="E35" s="9" t="s">
+      <c r="F35" s="9" t="s">
         <v>64</v>
-      </c>
-      <c r="F35" s="9" t="s">
-        <v>65</v>
       </c>
       <c r="G35" s="1"/>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A36" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B36" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="C36" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="C36" s="2" t="s">
+      <c r="D36" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="E36" s="9" t="s">
         <v>67</v>
       </c>
-      <c r="D36" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="E36" s="9" t="s">
+      <c r="F36" s="9" t="s">
         <v>68</v>
-      </c>
-      <c r="F36" s="9" t="s">
-        <v>69</v>
       </c>
       <c r="G36" s="1"/>
     </row>
@@ -2479,22 +2479,22 @@
         <v>31</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C37" s="2" t="s">
         <v>40</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="E37" s="9" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F37" s="9" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G37" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.4">
@@ -2505,19 +2505,19 @@
         <v>33</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="E38" s="9" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F38" s="9" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="G38" s="4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.4">
@@ -2531,13 +2531,13 @@
         <v>48</v>
       </c>
       <c r="D39" s="6" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="E39" s="13" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F39" s="13" t="s">
-        <v>49</v>
+        <v>166</v>
       </c>
       <c r="G39" s="5"/>
     </row>
